--- a/Files/new-main.xlsx
+++ b/Files/new-main.xlsx
@@ -426,15 +426,16 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E4"/>
+  <dimension ref="A1:F6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
     <col customWidth="1" max="1" min="1" width="15.140625"/>
+    <col customWidth="1" max="2" min="2" width="15.7109375"/>
     <col customWidth="1" max="3" min="3" width="16.5703125"/>
     <col customWidth="1" max="5" min="5" width="30"/>
   </cols>
@@ -472,6 +473,11 @@
           <t>машина-победитель</t>
         </is>
       </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -491,6 +497,11 @@
           <t>10тбайт</t>
         </is>
       </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>тбайт</t>
+        </is>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -508,14 +519,81 @@
           <t>телефон55</t>
         </is>
       </c>
-      <c r="D4" s="1" t="inlineStr">
+      <c r="D4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="E4" s="1" t="inlineStr">
+        <is>
+          <t>2ангел</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
         <is>
           <t>NA</t>
         </is>
       </c>
-      <c r="E4" s="1" t="inlineStr">
-        <is>
-          <t>2ангел</t>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="inlineStr">
+        <is>
+          <t>10Мбар</t>
+        </is>
+      </c>
+      <c r="B5" s="1" t="inlineStr">
+        <is>
+          <t>Пбайт тест</t>
+        </is>
+      </c>
+      <c r="C5" s="1" t="inlineStr">
+        <is>
+          <t>телефон55</t>
+        </is>
+      </c>
+      <c r="D5" s="1" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="E5" s="1" t="inlineStr">
+        <is>
+          <t>2Кбит</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Кбит</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="B6" s="1" t="inlineStr">
+        <is>
+          <t>тест Гбит</t>
+        </is>
+      </c>
+      <c r="C6" s="1" t="inlineStr">
+        <is>
+          <t>телефон55</t>
+        </is>
+      </c>
+      <c r="D6" s="1" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="E6" s="1" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>NA</t>
         </is>
       </c>
     </row>

--- a/Files/new-main.xlsx
+++ b/Files/new-main.xlsx
@@ -42,7 +42,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -74,15 +74,22 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf borderId="1" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf borderId="1" fillId="0" fontId="0" numFmtId="49" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf borderId="2" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf borderId="3" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle builtinId="0" name="Обычный" xfId="0"/>
@@ -473,7 +480,7 @@
           <t>машина-победитель</t>
         </is>
       </c>
-      <c r="F2" t="inlineStr">
+      <c r="F2" s="4" t="inlineStr">
         <is>
           <t>NA</t>
         </is>
@@ -494,10 +501,10 @@
       </c>
       <c r="E3" s="1" t="inlineStr">
         <is>
-          <t>10тбайт</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
+          <t>10</t>
+        </is>
+      </c>
+      <c r="F3" s="4" t="inlineStr">
         <is>
           <t>тбайт</t>
         </is>
@@ -527,7 +534,7 @@
           <t>2ангел</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" s="4" t="inlineStr">
         <is>
           <t>NA</t>
         </is>
@@ -536,7 +543,7 @@
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>10Мбар</t>
+          <t>10амбар</t>
         </is>
       </c>
       <c r="B5" s="1" t="inlineStr">
@@ -556,12 +563,12 @@
       </c>
       <c r="E5" s="1" t="inlineStr">
         <is>
-          <t>2Кбит</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>Кбит</t>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="F5" s="4" t="inlineStr">
+        <is>
+          <t>кбит</t>
         </is>
       </c>
     </row>
@@ -591,7 +598,7 @@
           <t>NA</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" s="4" t="inlineStr">
         <is>
           <t>NA</t>
         </is>

--- a/Files/new-main.xlsx
+++ b/Files/new-main.xlsx
@@ -3,10 +3,12 @@
 <workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible" windowHeight="15840" windowWidth="29040" xWindow="-120" yWindow="480"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible" windowHeight="11385" windowWidth="21600" xWindow="3060" yWindow="4380"/>
   </bookViews>
   <sheets>
-    <sheet name="Лист1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="New Worksheet number 1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="New Worksheet number 2" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="New Worksheet number 3" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="181029" fullCalcOnLoad="1"/>
@@ -435,16 +437,17 @@
   </sheetPr>
   <dimension ref="A1:F6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15" outlineLevelCol="0"/>
   <cols>
-    <col customWidth="1" max="1" min="1" width="15.140625"/>
-    <col customWidth="1" max="2" min="2" width="15.7109375"/>
-    <col customWidth="1" max="3" min="3" width="16.5703125"/>
-    <col customWidth="1" max="5" min="5" width="30"/>
+    <col customWidth="1" max="1" min="1" width="18"/>
+    <col customWidth="1" max="2" min="2" width="15"/>
+    <col customWidth="1" max="3" min="3" width="22"/>
+    <col customWidth="1" max="4" min="4" width="6"/>
+    <col customWidth="1" max="5" min="5" width="38"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -467,7 +470,7 @@
           <t>Стул</t>
         </is>
       </c>
-      <c r="C2" s="2" t="inlineStr">
+      <c r="C2" s="1" t="inlineStr">
         <is>
           <t>шкаф</t>
         </is>
@@ -605,6 +608,155 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:F3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15" outlineLevelCol="0"/>
+  <cols>
+    <col customWidth="1" max="1" min="1" width="6"/>
+    <col customWidth="1" max="2" min="2" width="6"/>
+    <col customWidth="1" max="3" min="3" width="6"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>a</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>v</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>c</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="inlineStr">
+        <is>
+          <t>я</t>
+        </is>
+      </c>
+      <c r="B2" s="1" t="inlineStr">
+        <is>
+          <t>я</t>
+        </is>
+      </c>
+      <c r="C2" s="1" t="inlineStr">
+        <is>
+          <t>я</t>
+        </is>
+      </c>
+      <c r="F2" s="4" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B3" s="1" t="inlineStr">
+        <is>
+          <t>я</t>
+        </is>
+      </c>
+      <c r="C3" s="1" t="inlineStr">
+        <is>
+          <t>я</t>
+        </is>
+      </c>
+      <c r="F3" s="4" t="inlineStr">
+        <is>
+          <t>тбайт</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:F2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15" outlineLevelCol="0"/>
+  <cols>
+    <col customWidth="1" max="1" min="1" width="8"/>
+    <col customWidth="1" max="2" min="2" width="10"/>
+    <col customWidth="1" max="3" min="3" width="10"/>
+    <col customWidth="1" max="4" min="4" width="11"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="B1" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>asdv</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="inlineStr">
+        <is>
+          <t>asd</t>
+        </is>
+      </c>
+      <c r="B2" s="1" t="inlineStr">
+        <is>
+          <t>adada</t>
+        </is>
+      </c>
+      <c r="C2" s="1" t="inlineStr">
+        <is>
+          <t>adada</t>
+        </is>
+      </c>
+      <c r="D2" s="1" t="inlineStr">
+        <is>
+          <t>adadad</t>
+        </is>
+      </c>
+      <c r="F2" s="4" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
 </file>